--- a/Outputs/glsTrends_site_level.xlsx
+++ b/Outputs/glsTrends_site_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40436072c29b51f3/University of Johannesburg/Post-Doc/Nature Research Centre/How Changes in Bioversity Change Biodiversity/Analyses/Biochange_Paper1/Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{159345E9-B6FE-43AE-8991-07E8D9F7E04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{159345E9-B6FE-43AE-8991-07E8D9F7E04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C217185A-147E-450F-B18A-6723EC905F76}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glsTrends_site_level" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">glsTrends_site_level!$A$1:$E$1067</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="75">
   <si>
     <t>estimate</t>
   </si>
@@ -243,11 +256,17 @@
   <si>
     <t>turnover</t>
   </si>
+  <si>
+    <t>decreasing</t>
+  </si>
+  <si>
+    <t>increasing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,9 +807,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -828,7 +847,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -934,7 +953,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1076,19 +1095,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G1067"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1067"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G988" sqref="G988"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="A330" sqref="A330:E370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1097,6 +1115,8 @@
     <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1116,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>7.2614655817737003E-3</v>
       </c>
@@ -1133,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.30541067622327E-2</v>
       </c>
@@ -1150,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6.7501787210742695E-2</v>
       </c>
@@ -1167,7 +1187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.13250986081051899</v>
       </c>
@@ -1184,7 +1204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-2.6007951392900502E-2</v>
       </c>
@@ -1201,7 +1221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.15976677989729901</v>
       </c>
@@ -1218,7 +1238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-7.0147665088392194E-2</v>
       </c>
@@ -1235,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-9.9771633249495801E-3</v>
       </c>
@@ -1252,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>-8.6738754100168902E-2</v>
       </c>
@@ -1269,7 +1289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-8.1573936901255303E-3</v>
       </c>
@@ -1286,7 +1306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>-6.04486765959239E-3</v>
       </c>
@@ -1303,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.0700745292655399E-2</v>
       </c>
@@ -1320,7 +1340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.113525629324979</v>
       </c>
@@ -1337,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>-2.7219385963569501E-2</v>
       </c>
@@ -1354,7 +1374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.3079602931324701E-2</v>
       </c>
@@ -1371,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>-3.7835212634918902E-2</v>
       </c>
@@ -1388,7 +1408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8.0782192098564895E-2</v>
       </c>
@@ -1405,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>-0.107872370126269</v>
       </c>
@@ -1422,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.6177744712148E-2</v>
       </c>
@@ -1439,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.202508587359568</v>
       </c>
@@ -1456,7 +1476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>-5.6583384893411401E-2</v>
       </c>
@@ -1473,7 +1493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>-1.5133849055007999E-2</v>
       </c>
@@ -1490,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.3477903876727501E-2</v>
       </c>
@@ -1507,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>7.7556817437694395E-2</v>
       </c>
@@ -1524,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>9.6071497352603702E-2</v>
       </c>
@@ -1541,7 +1561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3.8622769736031903E-2</v>
       </c>
@@ -1558,7 +1578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>-8.5443914203368707E-2</v>
       </c>
@@ -1575,7 +1595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>-2.0311506915034201E-2</v>
       </c>
@@ -1592,7 +1612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>-7.5629944367379704E-3</v>
       </c>
@@ -1609,7 +1629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8.4509803732045294E-2</v>
       </c>
@@ -1626,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8.5401841681080504E-2</v>
       </c>
@@ -1643,7 +1663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>-1.31904898968932E-2</v>
       </c>
@@ -1660,7 +1680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>-1.48305048077231E-4</v>
       </c>
@@ -1677,7 +1697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>-2.7319111289423499E-2</v>
       </c>
@@ -1694,7 +1714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7.7073675429839006E-2</v>
       </c>
@@ -1711,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>-6.79714524837432E-2</v>
       </c>
@@ -1728,7 +1748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.156774201324137</v>
       </c>
@@ -1745,7 +1765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>6.3304834098176499E-2</v>
       </c>
@@ -1762,7 +1782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>5.5704682915034602E-2</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>-1.9690426677568301E-2</v>
       </c>
@@ -1796,7 +1816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.114749036766958</v>
       </c>
@@ -1813,7 +1833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.42844849912471E-2</v>
       </c>
@@ -1830,7 +1850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>-3.3674028588674097E-2</v>
       </c>
@@ -1847,7 +1867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.13347120096808299</v>
       </c>
@@ -1864,7 +1884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>4.8597644151726897E-2</v>
       </c>
@@ -1881,7 +1901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>-8.7562490303844207E-2</v>
       </c>
@@ -1898,7 +1918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.10732784653805399</v>
       </c>
@@ -1915,7 +1935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>-1.0455784701563799E-2</v>
       </c>
@@ -1932,7 +1952,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5.0876357505219702E-3</v>
       </c>
@@ -1949,7 +1969,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>-0.138148557227116</v>
       </c>
@@ -1966,7 +1986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2.0856781345971801E-2</v>
       </c>
@@ -1983,7 +2003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2.8030107997180798E-4</v>
       </c>
@@ -2000,7 +2020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.1256813645725502E-2</v>
       </c>
@@ -2017,7 +2037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2.32364153802063E-2</v>
       </c>
@@ -2034,7 +2054,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>7.0082278854942601E-3</v>
       </c>
@@ -2051,7 +2071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1.7005185996522999E-2</v>
       </c>
@@ -2068,7 +2088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>9.8748211934319194E-2</v>
       </c>
@@ -2085,7 +2105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>-3.9753139462820997E-2</v>
       </c>
@@ -2102,7 +2122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>-0.14828161861688</v>
       </c>
@@ -2119,7 +2139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>7.3422655044039595E-2</v>
       </c>
@@ -2136,7 +2156,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.272526446146581</v>
       </c>
@@ -2153,7 +2173,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>-6.0811711490255903E-2</v>
       </c>
@@ -2170,7 +2190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>3.4098301227789402E-3</v>
       </c>
@@ -2187,7 +2207,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>-2.8375138572081599E-2</v>
       </c>
@@ -2204,7 +2224,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.17268296962441201</v>
       </c>
@@ -2221,7 +2241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>-6.8389847645437801E-3</v>
       </c>
@@ -2238,7 +2258,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.14971777578113199</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>-0.110273339142095</v>
       </c>
@@ -2272,7 +2292,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>4.0642004844475797E-2</v>
       </c>
@@ -2289,7 +2309,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1.4934458959222401E-2</v>
       </c>
@@ -2306,7 +2326,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2.41815705076842E-2</v>
       </c>
@@ -2323,7 +2343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.107867220379919</v>
       </c>
@@ -2340,7 +2360,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>-0.118406949082556</v>
       </c>
@@ -2357,7 +2377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>5.3267670650715797E-2</v>
       </c>
@@ -2374,7 +2394,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>-1.24308428552161E-2</v>
       </c>
@@ -2391,7 +2411,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>3.9475242235161502E-2</v>
       </c>
@@ -2408,7 +2428,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>-6.9988401263525901E-2</v>
       </c>
@@ -2425,7 +2445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.14982711388366199</v>
       </c>
@@ -2442,7 +2462,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.10020192701252199</v>
       </c>
@@ -2459,7 +2479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.184978874261367</v>
       </c>
@@ -2476,7 +2496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>7.9120865610737806E-2</v>
       </c>
@@ -2493,7 +2513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.119494883042327</v>
       </c>
@@ -2510,7 +2530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>3.3397795971420598E-2</v>
       </c>
@@ -2527,7 +2547,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>8.9009237169904703E-3</v>
       </c>
@@ -2544,7 +2564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.19999999997714299</v>
       </c>
@@ -2561,7 +2581,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>5.0656077864737498E-2</v>
       </c>
@@ -2578,7 +2598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>6.8807399524134893E-2</v>
       </c>
@@ -2595,7 +2615,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.12656385845717899</v>
       </c>
@@ -2612,7 +2632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>-6.0852201937725801E-2</v>
       </c>
@@ -2629,7 +2649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>4.1715053365283097E-2</v>
       </c>
@@ -2646,7 +2666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>-1.49799177075768E-2</v>
       </c>
@@ -2663,7 +2683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>7.1895473484956202E-2</v>
       </c>
@@ -2680,7 +2700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>3.96671567503942E-2</v>
       </c>
@@ -2697,7 +2717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>3.1783724517899299E-2</v>
       </c>
@@ -2714,7 +2734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>8.3207491535838798E-2</v>
       </c>
@@ -2731,7 +2751,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1.13864272311958E-2</v>
       </c>
@@ -2748,7 +2768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1.4152546223677001E-2</v>
       </c>
@@ -2765,7 +2785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>7.9388271596383994E-2</v>
       </c>
@@ -2782,7 +2802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>4.53453363214407E-2</v>
       </c>
@@ -2799,7 +2819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>-2.9276700630494E-2</v>
       </c>
@@ -2816,7 +2836,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1.5681799208744601E-2</v>
       </c>
@@ -2833,7 +2853,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.131300689096989</v>
       </c>
@@ -2850,7 +2870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1.03184436174691E-2</v>
       </c>
@@ -2867,7 +2887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>4.1451191126627797E-2</v>
       </c>
@@ -2884,7 +2904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>3.9776796537672097E-2</v>
       </c>
@@ -2901,7 +2921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>9.8969215238759706E-2</v>
       </c>
@@ -2918,7 +2938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>-4.1129770137059797E-2</v>
       </c>
@@ -2935,7 +2955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>-1.4453113367418601E-2</v>
       </c>
@@ -2952,7 +2972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>-1.9836772929604902E-12</v>
       </c>
@@ -2969,7 +2989,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1.8745945238513599E-3</v>
       </c>
@@ -2986,7 +3006,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1.7452698294250401E-2</v>
       </c>
@@ -3003,7 +3023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>6.8038129250193105E-2</v>
       </c>
@@ -3020,7 +3040,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>8.9552470483399593E-2</v>
       </c>
@@ -3037,7 +3057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>-3.2310246309634701E-2</v>
       </c>
@@ -3054,7 +3074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>-1.9683930281878901E-2</v>
       </c>
@@ -3071,7 +3091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>-7.6632901158589003E-3</v>
       </c>
@@ -3088,7 +3108,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1.87358875096999E-2</v>
       </c>
@@ -3105,7 +3125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>-7.6705550755714596E-3</v>
       </c>
@@ -3122,7 +3142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>9.1585879679349905E-2</v>
       </c>
@@ -3139,7 +3159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1.40200682552234E-2</v>
       </c>
@@ -3156,7 +3176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>-1.6236970745660498E-2</v>
       </c>
@@ -3173,7 +3193,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>6.5472114306279097E-2</v>
       </c>
@@ -3190,7 +3210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>3.5602364008847698E-2</v>
       </c>
@@ -3207,7 +3227,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>-2.1738176229945401E-2</v>
       </c>
@@ -3224,7 +3244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>-7.2653254909929701E-2</v>
       </c>
@@ -3241,7 +3261,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>-4.78523320152437E-3</v>
       </c>
@@ -3258,7 +3278,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.25870334759298402</v>
       </c>
@@ -3275,7 +3295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>3.1057707116033999E-2</v>
       </c>
@@ -3292,7 +3312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0.29061723952360602</v>
       </c>
@@ -3309,7 +3329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>-6.9897000422459096E-2</v>
       </c>
@@ -3326,7 +3346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>50</v>
       </c>
@@ -3343,7 +3363,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>50</v>
       </c>
@@ -3360,7 +3380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>-3.2051049236596699E-2</v>
       </c>
@@ -3377,7 +3397,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1.7378495764247399E-2</v>
       </c>
@@ -3394,7 +3414,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>-2.1408016754230201E-2</v>
       </c>
@@ -3411,7 +3431,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0.13978215560482299</v>
       </c>
@@ -3428,7 +3448,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>-3.4845464479392102E-2</v>
       </c>
@@ -3445,7 +3465,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.10678556528665201</v>
       </c>
@@ -3462,7 +3482,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1.02157287701774E-2</v>
       </c>
@@ -3479,7 +3499,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.11276295118095001</v>
       </c>
@@ -3496,7 +3516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>-0.16092385796504799</v>
       </c>
@@ -3513,7 +3533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>-8.5600377520258404E-3</v>
       </c>
@@ -3530,7 +3550,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.14553227147226599</v>
       </c>
@@ -3547,7 +3567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>-9.66067171138431E-3</v>
       </c>
@@ -3564,7 +3584,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>50</v>
       </c>
@@ -3581,7 +3601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>9.0308998703612101E-2</v>
       </c>
@@ -3598,7 +3618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.18782417944615601</v>
       </c>
@@ -3615,7 +3635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>7.3360371562939994E-2</v>
       </c>
@@ -3632,7 +3652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1.5833780253020999E-2</v>
       </c>
@@ -3649,7 +3669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>-6.93213644792499E-2</v>
       </c>
@@ -3666,7 +3686,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>7.3963602640324894E-2</v>
       </c>
@@ -3683,7 +3703,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>-1.04332140495854E-2</v>
       </c>
@@ -3700,7 +3720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>9.4809216663942597E-2</v>
       </c>
@@ -3717,7 +3737,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.123664697828385</v>
       </c>
@@ -3734,7 +3754,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>-0.102644397487879</v>
       </c>
@@ -3751,7 +3771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>3.3060379393625203E-2</v>
       </c>
@@ -3768,7 +3788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>3.6160036267790498E-2</v>
       </c>
@@ -3785,7 +3805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>5.0127037497863403E-2</v>
       </c>
@@ -3802,7 +3822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2.6083459003809699E-2</v>
       </c>
@@ -3819,7 +3839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>-1.84552433223934E-2</v>
       </c>
@@ -3836,7 +3856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.17232805616307301</v>
       </c>
@@ -3853,7 +3873,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>-6.2550528024458901E-2</v>
       </c>
@@ -3870,7 +3890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>-1.9980843927173499E-2</v>
       </c>
@@ -3887,7 +3907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0.131916636437103</v>
       </c>
@@ -3904,7 +3924,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>-4.0639244213621403E-2</v>
       </c>
@@ -3921,7 +3941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>-5.7416030812442599E-2</v>
       </c>
@@ -3938,7 +3958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1.03528599127298E-2</v>
       </c>
@@ -3955,7 +3975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0.20581247428244601</v>
       </c>
@@ -3972,7 +3992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>3.85499211963196E-2</v>
       </c>
@@ -3989,7 +4009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.10591449143449599</v>
       </c>
@@ -4006,7 +4026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>-9.9999999996984501E-2</v>
       </c>
@@ -4023,7 +4043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>50</v>
       </c>
@@ -4040,7 +4060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>50</v>
       </c>
@@ -4057,7 +4077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>-4.58546855967557E-2</v>
       </c>
@@ -4074,7 +4094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>8.9558221414844805E-2</v>
       </c>
@@ -4091,7 +4111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>4.7701910463597799E-2</v>
       </c>
@@ -4108,7 +4128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>6.9758496077548401E-2</v>
       </c>
@@ -4125,7 +4145,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>4.1423645846580301E-2</v>
       </c>
@@ -4142,7 +4162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0.13869222367841599</v>
       </c>
@@ -4159,7 +4179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>8.21586553744557E-2</v>
       </c>
@@ -4176,7 +4196,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0.16222840265829699</v>
       </c>
@@ -4193,7 +4213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>-4.5425850407420199E-2</v>
       </c>
@@ -4210,7 +4230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2.1740630577526698E-3</v>
       </c>
@@ -4227,7 +4247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>3.5982983781935998E-2</v>
       </c>
@@ -4244,7 +4264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>4.9959505048513701E-2</v>
       </c>
@@ -4261,7 +4281,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>50</v>
       </c>
@@ -4278,7 +4298,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0.114712803587638</v>
       </c>
@@ -4295,7 +4315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>9.9999999827042399E-2</v>
       </c>
@@ -4312,7 +4332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0.10078767423673</v>
       </c>
@@ -4329,7 +4349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>5.00403719911829E-2</v>
       </c>
@@ -4346,7 +4366,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>-5.4483967237220703E-2</v>
       </c>
@@ -4363,7 +4383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>7.9130786766854005E-2</v>
       </c>
@@ -4380,7 +4400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>-3.40451483097695E-3</v>
       </c>
@@ -4397,7 +4417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0.143746389957049</v>
       </c>
@@ -4414,7 +4434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.102653787587837</v>
       </c>
@@ -4431,7 +4451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>-4.9071595299633598E-2</v>
       </c>
@@ -4448,7 +4468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>7.7404050029256599E-2</v>
       </c>
@@ -4465,7 +4485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>-1.0931676530927001E-3</v>
       </c>
@@ -4482,7 +4502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>4.9473881062174201E-2</v>
       </c>
@@ -4499,7 +4519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>4.34036840794488E-2</v>
       </c>
@@ -4516,7 +4536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>-3.1472706989713398E-2</v>
       </c>
@@ -4533,7 +4553,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1.2166663406704799E-2</v>
       </c>
@@ -4550,7 +4570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>-0.123582768980701</v>
       </c>
@@ -4567,7 +4587,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>2.4039709274250101E-2</v>
       </c>
@@ -4584,7 +4604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>-2.8509225116661999E-2</v>
       </c>
@@ -4601,7 +4621,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>-6.0296473143034504E-3</v>
       </c>
@@ -4618,7 +4638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>-6.0458577885480799E-2</v>
       </c>
@@ -4635,7 +4655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>9.88577825414612E-2</v>
       </c>
@@ -4652,7 +4672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>0.21961756009228001</v>
       </c>
@@ -4669,7 +4689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1.32050148681953E-2</v>
       </c>
@@ -4686,7 +4706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>8.6479927338245999E-2</v>
       </c>
@@ -4703,7 +4723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>-3.3274440884448003E-2</v>
       </c>
@@ -4720,7 +4740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>8.7070058812007703E-2</v>
       </c>
@@ -4737,7 +4757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>7.0600767196210806E-2</v>
       </c>
@@ -4754,7 +4774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>5.1873362793902603E-2</v>
       </c>
@@ -4771,7 +4791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>4.1195971389857797E-2</v>
       </c>
@@ -4788,7 +4808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>7.8595423216242494E-2</v>
       </c>
@@ -4805,7 +4825,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>0.106438607280592</v>
       </c>
@@ -4822,7 +4842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>7.2203530757299794E-2</v>
       </c>
@@ -4839,7 +4859,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2.0101742450777799E-2</v>
       </c>
@@ -4856,7 +4876,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>-6.1805310612320301E-2</v>
       </c>
@@ -4873,7 +4893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0.15314789166370099</v>
       </c>
@@ -4890,7 +4910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>-0.129234939406521</v>
       </c>
@@ -4907,7 +4927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2.7499648586905501E-2</v>
       </c>
@@ -4924,7 +4944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0.433717624051771</v>
       </c>
@@ -4941,7 +4961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>-3.6304046035051302E-2</v>
       </c>
@@ -4958,7 +4978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>5.4536682437850599E-2</v>
       </c>
@@ -4975,7 +4995,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>0.114164587542159</v>
       </c>
@@ -4992,7 +5012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1.3549354776543799E-2</v>
       </c>
@@ -5009,7 +5029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>0.15682017220373001</v>
       </c>
@@ -5026,7 +5046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>-8.6531944645884207E-2</v>
       </c>
@@ -5043,7 +5063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>-0.12242346581848899</v>
       </c>
@@ -5060,7 +5080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>-0.10080012088384201</v>
       </c>
@@ -5077,7 +5097,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>-0.17128239334671599</v>
       </c>
@@ -5094,7 +5114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0.18129133555827401</v>
       </c>
@@ -5111,7 +5131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0.177846902701989</v>
       </c>
@@ -5128,7 +5148,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>9.5424250923602905E-2</v>
       </c>
@@ -5145,7 +5165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1.4039850426418801E-2</v>
       </c>
@@ -5162,7 +5182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>-1.9833531054894899E-2</v>
       </c>
@@ -5179,7 +5199,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>0.15720399635329099</v>
       </c>
@@ -5196,7 +5216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>-0.100272707398624</v>
       </c>
@@ -5213,7 +5233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>0.13487675369857899</v>
       </c>
@@ -5230,7 +5250,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>8.1056014386531594E-2</v>
       </c>
@@ -5247,7 +5267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>5.9265298646174802E-2</v>
       </c>
@@ -5264,7 +5284,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>-0.19750483481091199</v>
       </c>
@@ -5281,7 +5301,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>0.15181002260529999</v>
       </c>
@@ -5298,7 +5318,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>6.9101815680996798E-3</v>
       </c>
@@ -5315,7 +5335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>-5.7309870054513899E-2</v>
       </c>
@@ -5332,7 +5352,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>9.9999999975037404E-2</v>
       </c>
@@ -5349,7 +5369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>6.99641558990238E-2</v>
       </c>
@@ -5366,7 +5386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>-3.7906213817435301E-2</v>
       </c>
@@ -5383,7 +5403,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>-1.0234892626724799E-3</v>
       </c>
@@ -5400,7 +5420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>-5.46824506467622E-2</v>
       </c>
@@ -5417,7 +5437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>0.121612586948542</v>
       </c>
@@ -5434,7 +5454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>2.9092743806280498E-3</v>
       </c>
@@ -5451,7 +5471,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>-1.06448459542612E-2</v>
       </c>
@@ -5468,7 +5488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1.5215916937E-2</v>
       </c>
@@ -5485,7 +5505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>0.110236274404495</v>
       </c>
@@ -5502,7 +5522,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>6.1677741787856503E-2</v>
       </c>
@@ -5519,7 +5539,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>-8.9812088123015998E-2</v>
       </c>
@@ -5536,7 +5556,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>5.3475258430910499E-2</v>
       </c>
@@ -5553,7 +5573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>-1.7043336872395599E-2</v>
       </c>
@@ -5570,7 +5590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>0.19999999483686801</v>
       </c>
@@ -5587,7 +5607,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>-4.0823847971093299E-2</v>
       </c>
@@ -5604,7 +5624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1.03796804365102E-2</v>
       </c>
@@ -5621,7 +5641,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>0.37927677574677399</v>
       </c>
@@ -5638,7 +5658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>3.3089600649609398E-2</v>
       </c>
@@ -5655,7 +5675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>5.7970413973060297E-2</v>
       </c>
@@ -5672,7 +5692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>0.15387150676929801</v>
       </c>
@@ -5689,7 +5709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>4.6729843720368099E-2</v>
       </c>
@@ -5706,7 +5726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>0.120005407483198</v>
       </c>
@@ -5723,7 +5743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>-0.10498797465677</v>
       </c>
@@ -5740,7 +5760,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>-0.101809333080597</v>
       </c>
@@ -5757,7 +5777,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>-0.11619579684889</v>
       </c>
@@ -5774,7 +5794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>-0.10060094105009799</v>
       </c>
@@ -5791,7 +5811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>9.9999999991821506E-2</v>
       </c>
@@ -5808,7 +5828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>0.13348738805208199</v>
       </c>
@@ -5825,7 +5845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>0.100000000001793</v>
       </c>
@@ -5842,7 +5862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>-1.6557580879420199E-2</v>
       </c>
@@ -5859,7 +5879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>-2.804356859347E-2</v>
       </c>
@@ -5876,7 +5896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>0.13336500061961201</v>
       </c>
@@ -5893,7 +5913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>-4.1509491819125999E-2</v>
       </c>
@@ -5910,7 +5930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>0.103209841639675</v>
       </c>
@@ -5927,7 +5947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>-1.0741742587467001E-2</v>
       </c>
@@ -5944,7 +5964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>9.2873678355818098E-2</v>
       </c>
@@ -5961,7 +5981,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>-8.1744928079088494E-2</v>
       </c>
@@ -5978,7 +5998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>0.101769813353558</v>
       </c>
@@ -5995,7 +6015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>-1.2350566792909501E-3</v>
       </c>
@@ -6012,7 +6032,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>-5.8151200336601797E-3</v>
       </c>
@@ -6029,7 +6049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>-1.1463770794965E-2</v>
       </c>
@@ -6046,7 +6066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>-9.2431198827077204E-3</v>
       </c>
@@ -6063,7 +6083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>2.9535765592300302E-3</v>
       </c>
@@ -6080,7 +6100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>-8.5273120287544107E-3</v>
       </c>
@@ -6097,7 +6117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>3.8643190010966499E-3</v>
       </c>
@@ -6114,7 +6134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>-6.9430025169621998E-3</v>
       </c>
@@ -6131,7 +6151,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>-1.6400131830808501E-4</v>
       </c>
@@ -6148,7 +6168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>3.5191626694131098E-4</v>
       </c>
@@ -6165,7 +6185,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>-5.3437515250863996E-3</v>
       </c>
@@ -6182,7 +6202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>9.3963682277829101E-4</v>
       </c>
@@ -6199,7 +6219,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>-7.6872360886607602E-3</v>
       </c>
@@ -6216,7 +6236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>-4.8557758063201101E-4</v>
       </c>
@@ -6233,7 +6253,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>2.6418729939301599E-3</v>
       </c>
@@ -6250,7 +6270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>2.3752987674342499E-3</v>
       </c>
@@ -6267,7 +6287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>-1.4993809644600901E-2</v>
       </c>
@@ -6284,7 +6304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>2.99417312469538E-3</v>
       </c>
@@ -6301,7 +6321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>-6.3004541007312398E-3</v>
       </c>
@@ -6318,7 +6338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>-8.7850124271447692E-3</v>
       </c>
@@ -6335,7 +6355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>-4.1023938636873501E-3</v>
       </c>
@@ -6352,7 +6372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>-4.5557436731528799E-3</v>
       </c>
@@ -6369,7 +6389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>-1.0671110282500101E-2</v>
       </c>
@@ -6386,7 +6406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>-4.1432189233689702E-4</v>
       </c>
@@ -6403,7 +6423,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>-2.9267733921607198E-3</v>
       </c>
@@ -6420,7 +6440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>-9.6662349021759408E-3</v>
       </c>
@@ -6437,7 +6457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>2.9992514888899499E-3</v>
       </c>
@@ -6454,7 +6474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1.4305217333339701E-3</v>
       </c>
@@ -6471,7 +6491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>-1.0043931088938301E-3</v>
       </c>
@@ -6488,7 +6508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>-1.17735845684987E-2</v>
       </c>
@@ -6505,7 +6525,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>-2.8887608982705601E-3</v>
       </c>
@@ -6522,7 +6542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>-5.7378274419822095E-4</v>
       </c>
@@ -6539,7 +6559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>2.89832339377225E-3</v>
       </c>
@@ -6556,7 +6576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>2.8607911279306098E-3</v>
       </c>
@@ -6573,7 +6593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>-9.9335402673942611E-4</v>
       </c>
@@ -6590,7 +6610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>3.35021828207396E-3</v>
       </c>
@@ -6607,7 +6627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>-5.1799021796855704E-3</v>
       </c>
@@ -6624,7 +6644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>-1.68479335072214E-4</v>
       </c>
@@ -6641,7 +6661,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>4.51861822976375E-3</v>
       </c>
@@ -6658,7 +6678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>-1.6699141795476901E-3</v>
       </c>
@@ -6675,7 +6695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>-2.0289900053534499E-3</v>
       </c>
@@ -6691,8 +6711,14 @@
       <c r="E329" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G329" t="s">
+        <v>74</v>
+      </c>
+      <c r="H329" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>-4.8195980334904999E-2</v>
       </c>
@@ -6708,8 +6734,16 @@
       <c r="E330" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G330">
+        <f>COUNTIF(A330:A370, "&gt;0")</f>
+        <v>20</v>
+      </c>
+      <c r="H330">
+        <f>COUNTIF(A330:A370, "&lt;0")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>3.5192570705314202E-2</v>
       </c>
@@ -6726,7 +6760,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>5.4786235076565E-2</v>
       </c>
@@ -6743,7 +6777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>0.285216530717049</v>
       </c>
@@ -6760,7 +6794,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>-0.15807284449905701</v>
       </c>
@@ -6777,7 +6811,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>4.8137971625388E-2</v>
       </c>
@@ -6794,7 +6828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>-0.119795155803057</v>
       </c>
@@ -6811,7 +6845,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>-1.81278644825205E-2</v>
       </c>
@@ -6828,7 +6862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>-0.15295516569954401</v>
       </c>
@@ -6845,7 +6879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>-5.6748128792212603E-2</v>
       </c>
@@ -6862,7 +6896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>-7.50819314612891E-3</v>
       </c>
@@ -6879,7 +6913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1.6306690322153899E-2</v>
       </c>
@@ -6896,7 +6930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>0.188915660815036</v>
       </c>
@@ -6913,7 +6947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>-1.1259312696247499E-2</v>
       </c>
@@ -6930,7 +6964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>-7.7979029483502202E-3</v>
       </c>
@@ -6947,7 +6981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>-5.8397188057028503E-2</v>
       </c>
@@ -6964,7 +6998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>0.134923978440146</v>
       </c>
@@ -6981,7 +7015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>-6.4893182761164306E-2</v>
       </c>
@@ -6998,7 +7032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1.00319184776223E-2</v>
       </c>
@@ -7015,7 +7049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>0.20137545047512001</v>
       </c>
@@ -7032,7 +7066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>-7.8945598201036499E-2</v>
       </c>
@@ -7049,7 +7083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>0.32954092894167603</v>
       </c>
@@ -7066,7 +7100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>0.12425317951188999</v>
       </c>
@@ -7083,7 +7117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>6.6937391077901504E-2</v>
       </c>
@@ -7100,7 +7134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>0.116801250260265</v>
       </c>
@@ -7117,7 +7151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>-6.2420000643062898E-2</v>
       </c>
@@ -7134,7 +7168,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>-8.2313439821185802E-2</v>
       </c>
@@ -7151,7 +7185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>-5.4920224647330401E-2</v>
       </c>
@@ -7168,7 +7202,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>-0.135883187433265</v>
       </c>
@@ -7185,7 +7219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>2.91739364988166E-2</v>
       </c>
@@ -7202,7 +7236,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>9.6797744125791396E-2</v>
       </c>
@@ -7219,7 +7253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>-8.3785613250095897E-2</v>
       </c>
@@ -7236,7 +7270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>-1.0173620088921E-2</v>
       </c>
@@ -7253,7 +7287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>-0.10476687165013999</v>
       </c>
@@ -7270,7 +7304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>0.10032417880800901</v>
       </c>
@@ -7287,7 +7321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>-0.126901250498934</v>
       </c>
@@ -7304,7 +7338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>0.19308563240742199</v>
       </c>
@@ -7321,7 +7355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>6.4225322994287695E-2</v>
       </c>
@@ -7338,7 +7372,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>-3.1834238060391998E-2</v>
       </c>
@@ -7355,7 +7389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>4.5200294392763102E-2</v>
       </c>
@@ -7372,7 +7406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>0.11266347999903401</v>
       </c>
@@ -7389,7 +7423,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>-5.11813074262919E-2</v>
       </c>
@@ -7406,7 +7440,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>9.4484507097257101E-2</v>
       </c>
@@ -7423,7 +7457,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>9.6717902046148801E-2</v>
       </c>
@@ -7440,7 +7474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>0.169038528315621</v>
       </c>
@@ -7457,7 +7491,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>-0.32651100846863501</v>
       </c>
@@ -7474,7 +7508,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>8.9000234480421797E-2</v>
       </c>
@@ -7491,7 +7525,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>-0.113136014673913</v>
       </c>
@@ -7508,7 +7542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>2.8560697546254302E-2</v>
       </c>
@@ -7525,7 +7559,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>-9.6336883193526304E-2</v>
       </c>
@@ -7542,7 +7576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>-0.12148150719255001</v>
       </c>
@@ -7559,7 +7593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>-6.1643389523154402E-3</v>
       </c>
@@ -7576,7 +7610,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>5.5920163388494697E-2</v>
       </c>
@@ -7593,7 +7627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>0.23512099618409499</v>
       </c>
@@ -7610,7 +7644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>0.14410212588193499</v>
       </c>
@@ -7627,7 +7661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>-3.5428507859193901E-2</v>
       </c>
@@ -7644,7 +7678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>-0.279583152255242</v>
       </c>
@@ -7661,7 +7695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>0.122382122370375</v>
       </c>
@@ -7678,7 +7712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>-2.79007851714176E-2</v>
       </c>
@@ -7695,7 +7729,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>6.8075909044624697E-2</v>
       </c>
@@ -7712,7 +7746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>0.142692089889699</v>
       </c>
@@ -7729,7 +7763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>-6.5286682339886007E-2</v>
       </c>
@@ -7746,7 +7780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>-8.7767506928851605E-3</v>
       </c>
@@ -7763,7 +7797,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>0.24494897445680899</v>
       </c>
@@ -7780,7 +7814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>-8.5560901607660306E-2</v>
       </c>
@@ -7797,7 +7831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>0.141421356183319</v>
       </c>
@@ -7814,7 +7848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>-7.9888521656769504E-2</v>
       </c>
@@ -7831,7 +7865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>-7.0816915619130602E-2</v>
       </c>
@@ -7848,7 +7882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>-0.147297842676404</v>
       </c>
@@ -7865,7 +7899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>-0.14078612209170399</v>
       </c>
@@ -7882,7 +7916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1.8608289995658899E-2</v>
       </c>
@@ -7899,7 +7933,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>9.2340318272776195E-2</v>
       </c>
@@ -7916,7 +7950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>-8.48612929678422E-2</v>
       </c>
@@ -7933,7 +7967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>-7.7504338435797404E-2</v>
       </c>
@@ -7950,7 +7984,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>-0.13198515181161999</v>
       </c>
@@ -7967,7 +8001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>0.10817747369363399</v>
       </c>
@@ -7984,7 +8018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>-0.28505248780048498</v>
       </c>
@@ -8001,7 +8035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>0.21775881625333801</v>
       </c>
@@ -8018,7 +8052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>-0.25821838596035801</v>
       </c>
@@ -8035,7 +8069,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>-0.13077131703711301</v>
       </c>
@@ -8052,7 +8086,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>-0.120609353496111</v>
       </c>
@@ -8069,7 +8103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>-3.5035699383518699E-2</v>
       </c>
@@ -8086,7 +8120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>-6.4181581341336405E-2</v>
       </c>
@@ -8103,7 +8137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>-4.4454996526190402E-4</v>
       </c>
@@ -8120,7 +8154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>-7.5565952914430704E-2</v>
       </c>
@@ -8137,7 +8171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>-2.9181872442458198E-3</v>
       </c>
@@ -8154,7 +8188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>5.1243711186304099E-4</v>
       </c>
@@ -8171,7 +8205,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>-8.77341187614082E-2</v>
       </c>
@@ -8188,7 +8222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>-7.8238700844162498E-2</v>
       </c>
@@ -8205,7 +8239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>9.8058827393525498E-3</v>
       </c>
@@ -8222,7 +8256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>6.5723864137910606E-2</v>
       </c>
@@ -8239,7 +8273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>-2.6484901300366799E-2</v>
       </c>
@@ -8256,7 +8290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>4.3835165085912599E-2</v>
       </c>
@@ -8273,7 +8307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>7.4832390053457001E-2</v>
       </c>
@@ -8290,7 +8324,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>-3.0782550030902599E-2</v>
       </c>
@@ -8307,7 +8341,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>6.2358124500462998E-2</v>
       </c>
@@ -8324,7 +8358,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>6.60577771751924E-2</v>
       </c>
@@ -8341,7 +8375,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>-5.3799974756188397E-2</v>
       </c>
@@ -8358,7 +8392,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>1.8668991230215599E-2</v>
       </c>
@@ -8375,7 +8409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>8.6367548447435702E-2</v>
       </c>
@@ -8392,7 +8426,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>-4.9198060452786102E-2</v>
       </c>
@@ -8409,7 +8443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>-0.12920498787114201</v>
       </c>
@@ -8426,7 +8460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>-1.1396563270230401E-2</v>
       </c>
@@ -8443,7 +8477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>-2.5825226413738601E-3</v>
       </c>
@@ -8460,7 +8494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>-3.6109411662569299E-2</v>
       </c>
@@ -8477,7 +8511,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>7.8393385388005402E-2</v>
       </c>
@@ -8494,7 +8528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>-3.9664242973754003E-2</v>
       </c>
@@ -8511,7 +8545,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>-3.7613525361660197E-2</v>
       </c>
@@ -8528,7 +8562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>1.3923044680377999E-2</v>
       </c>
@@ -8545,7 +8579,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>2.3573685457960701E-2</v>
       </c>
@@ -8562,7 +8596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>-1.0273361545156E-2</v>
       </c>
@@ -8579,7 +8613,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>-9.5935990774119295E-2</v>
       </c>
@@ -8596,7 +8630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>-3.1752072596917903E-2</v>
       </c>
@@ -8613,7 +8647,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>-1.09024379328498E-2</v>
       </c>
@@ -8630,7 +8664,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>1.7093223165069199E-2</v>
       </c>
@@ -8647,7 +8681,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>2.37271162853523E-2</v>
       </c>
@@ -8664,7 +8698,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>4.9067747151564201E-2</v>
       </c>
@@ -8681,7 +8715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>-5.6432533726051802E-2</v>
       </c>
@@ -8698,7 +8732,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>-0.121758221981956</v>
       </c>
@@ -8715,7 +8749,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>-6.1644902464398098E-2</v>
       </c>
@@ -8732,7 +8766,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>4.2681573290791301E-2</v>
       </c>
@@ -8749,7 +8783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>8.2000924120350198E-3</v>
       </c>
@@ -8766,7 +8800,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>-0.12935895319611901</v>
       </c>
@@ -8783,7 +8817,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>8.6298140185806699E-2</v>
       </c>
@@ -8800,7 +8834,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>-0.1203265340427</v>
       </c>
@@ -8817,7 +8851,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>-0.19818955273286101</v>
       </c>
@@ -8834,7 +8868,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>-0.16131507917735199</v>
       </c>
@@ -8851,7 +8885,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>0.21522868892820499</v>
       </c>
@@ -8868,7 +8902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>-0.23095973059829</v>
       </c>
@@ -8885,7 +8919,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>0.11054048101193099</v>
       </c>
@@ -8902,7 +8936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>8.2983106634837406E-2</v>
       </c>
@@ -8919,7 +8953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>-0.160701300863858</v>
       </c>
@@ -8936,7 +8970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>1.3330092810170001E-2</v>
       </c>
@@ -8953,7 +8987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>-7.9913646224101693E-3</v>
       </c>
@@ -8970,7 +9004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>-0.107074439362128</v>
       </c>
@@ -8987,7 +9021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>2.96940907136207E-2</v>
       </c>
@@ -9004,7 +9038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>-1.20962524434179E-2</v>
       </c>
@@ -9021,7 +9055,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>3.8604829130079003E-2</v>
       </c>
@@ -9038,7 +9072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>0.18209737459406899</v>
       </c>
@@ -9055,7 +9089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>0.186367459224697</v>
       </c>
@@ -9072,7 +9106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>-0.222428521415384</v>
       </c>
@@ -9089,7 +9123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>7.2697223133211503E-2</v>
       </c>
@@ -9106,7 +9140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>-7.7438929308211196E-2</v>
       </c>
@@ -9123,7 +9157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>7.6068958496120304E-2</v>
       </c>
@@ -9140,7 +9174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>0.18943842172074199</v>
       </c>
@@ -9157,7 +9191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>-0.25853541593605101</v>
       </c>
@@ -9174,7 +9208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>6.9055435585406E-2</v>
       </c>
@@ -9191,7 +9225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>-6.6972567917465406E-2</v>
       </c>
@@ -9208,7 +9242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>0.32540158112064699</v>
       </c>
@@ -9225,7 +9259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>-0.127146389920474</v>
       </c>
@@ -9242,7 +9276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>0.29008919889743301</v>
       </c>
@@ -9259,7 +9293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>0.18005234687007499</v>
       </c>
@@ -9276,7 +9310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>8.7113464678674493E-2</v>
       </c>
@@ -9293,7 +9327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>-5.7054255715965299E-2</v>
       </c>
@@ -9310,7 +9344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>-0.207400528851761</v>
       </c>
@@ -9327,7 +9361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>0.178205343481002</v>
       </c>
@@ -9344,7 +9378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>0.16699581408554101</v>
       </c>
@@ -9361,7 +9395,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>-0.123712761812054</v>
       </c>
@@ -9378,7 +9412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>0.13222725458786699</v>
       </c>
@@ -9395,7 +9429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>-7.9509830532768194E-2</v>
       </c>
@@ -9412,7 +9446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>0.19521405845303599</v>
       </c>
@@ -9429,7 +9463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>0.142521453837544</v>
       </c>
@@ -9446,7 +9480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>-1.5499231888062801E-2</v>
       </c>
@@ -9463,7 +9497,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>0.11353780263449199</v>
       </c>
@@ -9480,7 +9514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>3.3981084408961701E-4</v>
       </c>
@@ -9497,7 +9531,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>-7.1261562940167899E-4</v>
       </c>
@@ -9514,7 +9548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>-5.9480548948825397E-4</v>
       </c>
@@ -9531,7 +9565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>-1.09184192308569E-4</v>
       </c>
@@ -9548,7 +9582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>6.6995411696525297E-4</v>
       </c>
@@ -9565,7 +9599,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>-8.8810197485772902E-4</v>
       </c>
@@ -9582,7 +9616,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>1.09020764820876E-3</v>
       </c>
@@ -9599,7 +9633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>4.8494988088766103E-4</v>
       </c>
@@ -9616,7 +9650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>-6.4984582655362895E-5</v>
       </c>
@@ -9633,7 +9667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>6.5910514752281501E-5</v>
       </c>
@@ -9650,7 +9684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>-2.5482753859682302E-4</v>
       </c>
@@ -9667,7 +9701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>-1.3212830998989201E-4</v>
       </c>
@@ -9684,7 +9718,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>5.3317315527584802E-4</v>
       </c>
@@ -9701,7 +9735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>-1.2158519082726401E-4</v>
       </c>
@@ -9718,7 +9752,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>2.98847564218577E-4</v>
       </c>
@@ -9735,7 +9769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>4.9362479443837502E-4</v>
       </c>
@@ -9752,7 +9786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>8.8474505369637703E-4</v>
       </c>
@@ -9769,7 +9803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>-9.3528902416067396E-4</v>
       </c>
@@ -9786,7 +9820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>-2.9806142835197701E-4</v>
       </c>
@@ -9803,7 +9837,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>1.2269433851281201E-4</v>
       </c>
@@ -9820,7 +9854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>9.09237985845723E-5</v>
       </c>
@@ -9837,7 +9871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>6.2438174117436995E-4</v>
       </c>
@@ -9854,7 +9888,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>-4.3307610252425001E-4</v>
       </c>
@@ -9871,7 +9905,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>7.1800352610593593E-5</v>
       </c>
@@ -9888,7 +9922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>2.1266023188481101E-4</v>
       </c>
@@ -9905,7 +9939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>-1.03380352958364E-3</v>
       </c>
@@ -9922,7 +9956,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>-1.10578262651635E-4</v>
       </c>
@@ -9939,7 +9973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>5.6745568461116205E-4</v>
       </c>
@@ -9956,7 +9990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>7.88056547477914E-4</v>
       </c>
@@ -9973,7 +10007,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>7.3254678805534704E-4</v>
       </c>
@@ -9990,7 +10024,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>1.3665569155654699E-3</v>
       </c>
@@ -10007,7 +10041,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>-4.0700022075353999E-4</v>
       </c>
@@ -10024,7 +10058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>6.2092278620826699E-4</v>
       </c>
@@ -10041,7 +10075,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>7.9528339872895896E-4</v>
       </c>
@@ -10058,7 +10092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>-4.0716403454550701E-5</v>
       </c>
@@ -10075,7 +10109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>5.6678142286371196E-4</v>
       </c>
@@ -10092,7 +10126,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>2.07824389259642E-4</v>
       </c>
@@ -10109,7 +10143,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>1.5116335310015399E-4</v>
       </c>
@@ -10126,7 +10160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>-2.7795363302959001E-4</v>
       </c>
@@ -10143,7 +10177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>5.8996336885240596E-4</v>
       </c>
@@ -10160,7 +10194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>9.4889382447437096E-4</v>
       </c>
@@ -10177,7 +10211,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>-0.29304878290824998</v>
       </c>
@@ -10194,7 +10228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>0.21738475757360801</v>
       </c>
@@ -10211,7 +10245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>-2.1477013440087799E-2</v>
       </c>
@@ -10228,7 +10262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>4.9641631999251201E-2</v>
       </c>
@@ -10245,7 +10279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>-7.87770248086022E-2</v>
       </c>
@@ -10262,7 +10296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>8.8824281265177704E-2</v>
       </c>
@@ -10279,7 +10313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>-3.8708648206619498E-2</v>
       </c>
@@ -10296,7 +10330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>-0.108513909462969</v>
       </c>
@@ -10313,7 +10347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>-0.15767447404121501</v>
       </c>
@@ -10330,7 +10364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>0.235037359043614</v>
       </c>
@@ -10347,7 +10381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>-3.46080985751187E-2</v>
       </c>
@@ -10364,7 +10398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>0.10273710775869201</v>
       </c>
@@ -10381,7 +10415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>0.114740720655756</v>
       </c>
@@ -10398,7 +10432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>-8.7023940252918694E-2</v>
       </c>
@@ -10415,7 +10449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>-1.59741019606492E-2</v>
       </c>
@@ -10432,7 +10466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>-0.151354067127002</v>
       </c>
@@ -10449,7 +10483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>-0.20941955771759699</v>
       </c>
@@ -10466,7 +10500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>7.0555145880604894E-2</v>
       </c>
@@ -10483,7 +10517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>4.4607950394132102E-2</v>
       </c>
@@ -10500,7 +10534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>7.5805433655845397E-2</v>
       </c>
@@ -10517,7 +10551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>-7.4809842497563896E-3</v>
       </c>
@@ -10534,7 +10568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>9.5023448973135902E-2</v>
       </c>
@@ -10551,7 +10585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>-7.4822046957822699E-2</v>
       </c>
@@ -10568,7 +10602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>-0.242667956892926</v>
       </c>
@@ -10585,7 +10619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>-0.16932404824340999</v>
       </c>
@@ -10602,7 +10636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>0.14202508169442099</v>
       </c>
@@ -10619,7 +10653,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>-0.108553905347768</v>
       </c>
@@ -10636,7 +10670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>-3.4525494079905399E-2</v>
       </c>
@@ -10653,7 +10687,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>8.3203840604160806E-2</v>
       </c>
@@ -10670,7 +10704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>-0.10371005937356099</v>
       </c>
@@ -10687,7 +10721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>-0.180650481263012</v>
       </c>
@@ -10704,7 +10738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>-0.26904423207080003</v>
       </c>
@@ -10721,7 +10755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>-0.16125190455722899</v>
       </c>
@@ -10738,7 +10772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>-0.183482327335517</v>
       </c>
@@ -10755,7 +10789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>2.8951587478917302E-4</v>
       </c>
@@ -10772,7 +10806,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>-0.20759039502650301</v>
       </c>
@@ -10789,7 +10823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>7.5748797191147299E-2</v>
       </c>
@@ -10806,7 +10840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>-1.7047289005200899E-2</v>
       </c>
@@ -10823,7 +10857,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>3.3133444004262998E-2</v>
       </c>
@@ -10840,7 +10874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>0.48026618172781699</v>
       </c>
@@ -10857,7 +10891,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>-0.13296087078513</v>
       </c>
@@ -10874,7 +10908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>8.7002551396789899E-5</v>
       </c>
@@ -10891,7 +10925,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>2.8893680641164401E-2</v>
       </c>
@@ -10908,7 +10942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>-8.5239995750266799E-3</v>
       </c>
@@ -10925,7 +10959,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>-3.53247094817171E-2</v>
       </c>
@@ -10942,7 +10976,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>-1.6577150702617002E-2</v>
       </c>
@@ -10959,7 +10993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>-1.11429125218304E-3</v>
       </c>
@@ -10976,7 +11010,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>1.38487825702869E-2</v>
       </c>
@@ -10993,7 +11027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>-7.7251764120801003E-3</v>
       </c>
@@ -11010,7 +11044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>-6.6704831603278999E-3</v>
       </c>
@@ -11027,7 +11061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>9.4993150563960401E-3</v>
       </c>
@@ -11044,7 +11078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>-2.1902522456041601E-2</v>
       </c>
@@ -11061,7 +11095,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>6.29257068882896E-3</v>
       </c>
@@ -11078,7 +11112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>3.22175519141177E-4</v>
       </c>
@@ -11095,7 +11129,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>-5.0792718887417198E-3</v>
       </c>
@@ -11112,7 +11146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>4.64656663033685E-3</v>
       </c>
@@ -11129,7 +11163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>1.48163676548448E-4</v>
       </c>
@@ -11146,7 +11180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>-2.2471813634819999E-2</v>
       </c>
@@ -11163,7 +11197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>2.4979210197950401E-2</v>
       </c>
@@ -11180,7 +11214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>1.00891303687266E-3</v>
       </c>
@@ -11197,7 +11231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>-1.39190349261375E-2</v>
       </c>
@@ -11214,7 +11248,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>4.4196202159567897E-3</v>
       </c>
@@ -11231,7 +11265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>1.59097061417607E-2</v>
       </c>
@@ -11248,7 +11282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>2.3116408232668902E-3</v>
       </c>
@@ -11265,7 +11299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>-2.8900175456031001E-2</v>
       </c>
@@ -11282,7 +11316,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>-1.2923781133126499E-3</v>
       </c>
@@ -11299,7 +11333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>-1.06958093469886E-2</v>
       </c>
@@ -11316,7 +11350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>-2.37174567587853E-2</v>
       </c>
@@ -11333,7 +11367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>-4.1798251047813597E-3</v>
       </c>
@@ -11350,7 +11384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>-2.3946582973561098E-3</v>
       </c>
@@ -11367,7 +11401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>-9.6098445369052696E-3</v>
       </c>
@@ -11384,7 +11418,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>2.2617250867669899E-3</v>
       </c>
@@ -11401,7 +11435,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>-4.6336363660618501E-3</v>
       </c>
@@ -11418,7 +11452,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>-1.81111870909621E-2</v>
       </c>
@@ -11435,7 +11469,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>-1.11723113980152E-2</v>
       </c>
@@ -11452,7 +11486,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>-1.3198763558235901E-2</v>
       </c>
@@ -11469,7 +11503,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>-2.1042069789622898E-2</v>
       </c>
@@ -11486,7 +11520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>-1.24813324167796E-2</v>
       </c>
@@ -11503,7 +11537,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>-9.6623439335724905E-3</v>
       </c>
@@ -11520,7 +11554,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>1.04953857290796E-2</v>
       </c>
@@ -11537,7 +11571,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>4.09173092081715E-2</v>
       </c>
@@ -11554,7 +11588,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>-2.6864335725650699E-2</v>
       </c>
@@ -11571,7 +11605,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>-1.99841818581696E-3</v>
       </c>
@@ -11588,7 +11622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>-6.7446153874321704E-4</v>
       </c>
@@ -11605,7 +11639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>-4.8699960461767297E-3</v>
       </c>
@@ -11622,7 +11656,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>5.9358912503913001E-3</v>
       </c>
@@ -11639,7 +11673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>-6.6905498641867405E-4</v>
       </c>
@@ -11656,7 +11690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>5.7038576405357604E-3</v>
       </c>
@@ -11673,7 +11707,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>-8.9307853630142594E-3</v>
       </c>
@@ -11690,7 +11724,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>-3.8725175852237399E-3</v>
       </c>
@@ -11707,7 +11741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>-4.7842766113882803E-5</v>
       </c>
@@ -11724,7 +11758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>-2.8685736395841202E-3</v>
       </c>
@@ -11741,7 +11775,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>2.89533864270118E-4</v>
       </c>
@@ -11758,7 +11792,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>1.2684667272729001E-3</v>
       </c>
@@ -11775,7 +11809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>3.5881303745194399E-3</v>
       </c>
@@ -11792,7 +11826,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>1.26081750650186E-5</v>
       </c>
@@ -11809,7 +11843,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>-9.0809014604492297E-4</v>
       </c>
@@ -11826,7 +11860,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>-9.9324168845586498E-3</v>
       </c>
@@ -11843,7 +11877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>7.7249603326709996E-3</v>
       </c>
@@ -11860,7 +11894,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>2.1270272913936198E-3</v>
       </c>
@@ -11877,7 +11911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>-9.0078820405172102E-5</v>
       </c>
@@ -11894,7 +11928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>1.6244910400947999E-3</v>
       </c>
@@ -11911,7 +11945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>-9.4229921879796005E-3</v>
       </c>
@@ -11928,7 +11962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>1.2289179365010801E-4</v>
       </c>
@@ -11945,7 +11979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>2.69386260003739E-3</v>
       </c>
@@ -11962,7 +11996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>-1.19744057856847E-3</v>
       </c>
@@ -11979,7 +12013,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>-2.4063981156762301E-4</v>
       </c>
@@ -11996,7 +12030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>-8.70119069966197E-3</v>
       </c>
@@ -12013,7 +12047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>3.20603186527787E-3</v>
       </c>
@@ -12030,7 +12064,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>-2.8944735986776598E-3</v>
       </c>
@@ -12047,7 +12081,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>-1.9380766072270401E-3</v>
       </c>
@@ -12064,7 +12098,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>2.0858523328986201E-3</v>
       </c>
@@ -12081,7 +12115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>1.1278128197406199E-2</v>
       </c>
@@ -12098,7 +12132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>6.5267637986891397E-3</v>
       </c>
@@ -12115,7 +12149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>-7.7057739860903602E-4</v>
       </c>
@@ -12132,7 +12166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>2.0379975243766299E-4</v>
       </c>
@@ -12149,7 +12183,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>9.0825698252427391E-3</v>
       </c>
@@ -12166,7 +12200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>-3.3448478030077199E-4</v>
       </c>
@@ -12183,7 +12217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>4.2428790292337098E-3</v>
       </c>
@@ -12200,7 +12234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>2.3971682774379601E-4</v>
       </c>
@@ -12217,7 +12251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>-7.3542942752272003E-3</v>
       </c>
@@ -12234,7 +12268,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>-6.8721478326623196E-3</v>
       </c>
@@ -12251,7 +12285,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>-3.90018028017382E-3</v>
       </c>
@@ -12268,7 +12302,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>-2.2573591477184501E-2</v>
       </c>
@@ -12285,7 +12319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>7.1868057920006598E-2</v>
       </c>
@@ -12302,7 +12336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>-0.115912257404357</v>
       </c>
@@ -12319,7 +12353,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>-0.175388602768865</v>
       </c>
@@ -12336,7 +12370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>0.17295186794989001</v>
       </c>
@@ -12353,7 +12387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>8.17687061627696E-2</v>
       </c>
@@ -12370,7 +12404,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>0.13522713194990599</v>
       </c>
@@ -12387,7 +12421,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>5.5361560084194399E-2</v>
       </c>
@@ -12404,7 +12438,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>6.1004265034265903E-3</v>
       </c>
@@ -12421,7 +12455,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>4.5652413016355503E-2</v>
       </c>
@@ -12438,7 +12472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>-0.208078284002781</v>
       </c>
@@ -12455,7 +12489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>-8.4994069360567706E-2</v>
       </c>
@@ -12472,7 +12506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>-0.11203510985930901</v>
       </c>
@@ -12489,7 +12523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>-6.86814802175989E-3</v>
       </c>
@@ -12506,7 +12540,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>-3.54704063788185E-2</v>
       </c>
@@ -12523,7 +12557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>0.14625779738149</v>
       </c>
@@ -12540,7 +12574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>-0.157362909801257</v>
       </c>
@@ -12557,7 +12591,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>1.4999940630817599E-2</v>
       </c>
@@ -12574,7 +12608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>-4.3619874017301703E-3</v>
       </c>
@@ -12591,7 +12625,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>-9.45287057264316E-2</v>
       </c>
@@ -12608,7 +12642,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>0.17732578535932</v>
       </c>
@@ -12625,7 +12659,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>0.129803082761449</v>
       </c>
@@ -12642,7 +12676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>2.8922864983100999E-2</v>
       </c>
@@ -12659,7 +12693,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>0.105564958811825</v>
       </c>
@@ -12676,7 +12710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>9.1370713784134E-2</v>
       </c>
@@ -12693,7 +12727,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>0.100263772841056</v>
       </c>
@@ -12710,7 +12744,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>1.8661808550096502E-2</v>
       </c>
@@ -12727,7 +12761,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>0.21466488543373899</v>
       </c>
@@ -12744,7 +12778,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>6.4342152262813604E-2</v>
       </c>
@@ -12761,7 +12795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>-6.0675279982529598E-2</v>
       </c>
@@ -12778,7 +12812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>-0.164572521428135</v>
       </c>
@@ -12795,7 +12829,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>-4.5170823644775898E-2</v>
       </c>
@@ -12812,7 +12846,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>-7.53597533081172E-2</v>
       </c>
@@ -12829,7 +12863,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>-4.1340654889986297E-2</v>
       </c>
@@ -12846,7 +12880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>-5.3190771089246101E-2</v>
       </c>
@@ -12863,7 +12897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>0.23696563360196701</v>
       </c>
@@ -12880,7 +12914,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>-1.5894876955961201E-2</v>
       </c>
@@ -12897,7 +12931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>0.17295924062621901</v>
       </c>
@@ -12914,7 +12948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>-1.6473020249614102E-2</v>
       </c>
@@ -12931,7 +12965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>0.10155823318769799</v>
       </c>
@@ -12948,7 +12982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>7.8294371763397999E-2</v>
       </c>
@@ -12965,7 +12999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>5.2305020669221602E-3</v>
       </c>
@@ -12982,7 +13016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>1.00895044383543E-2</v>
       </c>
@@ -12999,7 +13033,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>2.3240565527392399E-3</v>
       </c>
@@ -13016,7 +13050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>8.2229658547491903E-3</v>
       </c>
@@ -13033,7 +13067,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>-4.3567578645035002E-3</v>
       </c>
@@ -13050,7 +13084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>1.8111068857565402E-2</v>
       </c>
@@ -13067,7 +13101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>6.3251870933976996E-4</v>
       </c>
@@ -13084,7 +13118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>8.1538250494494497E-3</v>
       </c>
@@ -13101,7 +13135,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>6.4694869842368599E-5</v>
       </c>
@@ -13118,7 +13152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>6.5076714922957402E-3</v>
       </c>
@@ -13135,7 +13169,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>1.84373371331531E-3</v>
       </c>
@@ -13152,7 +13186,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>-1.13246893433783E-3</v>
       </c>
@@ -13169,7 +13203,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>1.4275013019357E-2</v>
       </c>
@@ -13186,7 +13220,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>-2.8835994799567199E-3</v>
       </c>
@@ -13203,7 +13237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>-1.2278262765938901E-2</v>
       </c>
@@ -13220,7 +13254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>3.26417245400225E-4</v>
       </c>
@@ -13237,7 +13271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>3.73291766378114E-3</v>
       </c>
@@ -13254,7 +13288,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>-1.0637910941833899E-3</v>
       </c>
@@ -13271,7 +13305,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>1.02035600405979E-2</v>
       </c>
@@ -13288,7 +13322,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>1.8648542417560001E-2</v>
       </c>
@@ -13305,7 +13339,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>7.2146032327233302E-3</v>
       </c>
@@ -13322,7 +13356,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>1.0288640622092501E-2</v>
       </c>
@@ -13339,7 +13373,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>2.1206643615221701E-2</v>
       </c>
@@ -13356,7 +13390,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>8.5206240963085402E-3</v>
       </c>
@@ -13373,7 +13407,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>7.3523225696586303E-4</v>
       </c>
@@ -13390,7 +13424,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>6.2361845071342101E-3</v>
       </c>
@@ -13407,7 +13441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>-2.1979169032035999E-3</v>
       </c>
@@ -13424,7 +13458,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>-1.8657741329841701E-3</v>
       </c>
@@ -13441,7 +13475,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>4.9421548018621997E-3</v>
       </c>
@@ -13458,7 +13492,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>7.0017306805563199E-3</v>
       </c>
@@ -13475,7 +13509,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>9.8296473641869397E-3</v>
       </c>
@@ -13492,7 +13526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>-4.8622576674756102E-4</v>
       </c>
@@ -13509,7 +13543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>-1.09700428885294E-2</v>
       </c>
@@ -13526,7 +13560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>-7.3892194053444002E-3</v>
       </c>
@@ -13543,7 +13577,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>8.7610908382588608E-3</v>
       </c>
@@ -13560,7 +13594,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>1.9910488848511598E-3</v>
       </c>
@@ -13577,7 +13611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="735" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>1.99473918516055E-2</v>
       </c>
@@ -13594,7 +13628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>-8.0873715388914504E-4</v>
       </c>
@@ -13611,7 +13645,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>-6.1941996672864397E-3</v>
       </c>
@@ -13628,7 +13662,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>2.4612845466498801E-3</v>
       </c>
@@ -13645,7 +13679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>7.5493184797984902E-3</v>
       </c>
@@ -13662,7 +13696,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>3.1981042405286502E-3</v>
       </c>
@@ -13679,7 +13713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>3.70610292598508E-3</v>
       </c>
@@ -13696,7 +13730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>0.160205998837821</v>
       </c>
@@ -13713,7 +13747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>0.21814700690406999</v>
       </c>
@@ -13730,7 +13764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>1.37678991585365E-2</v>
       </c>
@@ -13747,7 +13781,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>0.100695128003171</v>
       </c>
@@ -13764,7 +13798,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>-1.97959674096224E-2</v>
       </c>
@@ -13781,7 +13815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>4.0814794551639798E-2</v>
       </c>
@@ -13798,7 +13832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>7.2504125872411103E-3</v>
       </c>
@@ -13815,7 +13849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>1.7680177165556699E-2</v>
       </c>
@@ -13832,7 +13866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>2.8249675942589201E-3</v>
       </c>
@@ -13849,7 +13883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>1.9807209216708602E-2</v>
       </c>
@@ -13866,7 +13900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>0.10045002085072099</v>
       </c>
@@ -13883,7 +13917,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>-4.3928226312906E-2</v>
       </c>
@@ -13900,7 +13934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>-1.01708895939329E-2</v>
       </c>
@@ -13917,7 +13951,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>-4.8238269222291102E-2</v>
       </c>
@@ -13934,7 +13968,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>6.2136514636045498E-2</v>
       </c>
@@ -13951,7 +13985,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>-7.3964699448827706E-2</v>
       </c>
@@ -13968,7 +14002,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>4.3918019693728098E-2</v>
       </c>
@@ -13985,7 +14019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>0.233081771034576</v>
       </c>
@@ -14002,7 +14036,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>-9.8300084414853807E-3</v>
       </c>
@@ -14019,7 +14053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>-2.3677520964889801E-2</v>
       </c>
@@ -14036,7 +14070,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>1.8864387086987899E-2</v>
       </c>
@@ -14053,7 +14087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>2.4822742291170399E-2</v>
       </c>
@@ -14070,7 +14104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>0.18388490900420801</v>
       </c>
@@ -14087,7 +14121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>-7.7186872713748897E-2</v>
       </c>
@@ -14104,7 +14138,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>-0.121761635761089</v>
       </c>
@@ -14121,7 +14155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>-6.8599049525247396E-2</v>
       </c>
@@ -14138,7 +14172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>-8.29955793853068E-2</v>
       </c>
@@ -14155,7 +14189,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>0.129666519020781</v>
       </c>
@@ -14172,7 +14206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>0.17646770535575901</v>
       </c>
@@ -14189,7 +14223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>-8.00255099439077E-3</v>
       </c>
@@ -14206,7 +14240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>-1.8811825840190501E-2</v>
       </c>
@@ -14223,7 +14257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>-1.48855708142179E-2</v>
       </c>
@@ -14240,7 +14274,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>0.12820365143653301</v>
       </c>
@@ -14257,7 +14291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>-8.1434562269378105E-2</v>
       </c>
@@ -14274,7 +14308,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>0.124028906955891</v>
       </c>
@@ -14291,7 +14325,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>5.8047173249844097E-2</v>
       </c>
@@ -14308,7 +14342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>-6.4752055245747994E-2</v>
       </c>
@@ -14325,7 +14359,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>-0.119666882204353</v>
       </c>
@@ -14342,7 +14376,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>9.1728937532507299E-2</v>
       </c>
@@ -14359,7 +14393,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>4.3484996323011199E-2</v>
       </c>
@@ -14376,7 +14410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="782" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>0.106430058852282</v>
       </c>
@@ -14393,7 +14427,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="783" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>0.22360679768753799</v>
       </c>
@@ -14410,7 +14444,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="784" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>6.5595253222734504E-2</v>
       </c>
@@ -14427,7 +14461,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>9.5790468897130193E-2</v>
       </c>
@@ -14444,7 +14478,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>0.121001556582786</v>
       </c>
@@ -14461,7 +14495,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>-1.02011625791898E-2</v>
       </c>
@@ -14478,7 +14512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>0.13510290731682101</v>
       </c>
@@ -14495,7 +14529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>7.8453383995711695E-2</v>
       </c>
@@ -14512,7 +14546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>2.02488422114756E-2</v>
       </c>
@@ -14529,7 +14563,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A791">
         <v>-7.2478482987535196E-3</v>
       </c>
@@ -14546,7 +14580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A792">
         <v>-1.0544978633055599E-2</v>
       </c>
@@ -14563,7 +14597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A793">
         <v>8.9346488565150997E-2</v>
       </c>
@@ -14580,7 +14614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A794">
         <v>-1.7943396965995201E-3</v>
       </c>
@@ -14597,7 +14631,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A795">
         <v>-6.44153247773116E-2</v>
       </c>
@@ -14614,7 +14648,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>1.52229770583025E-2</v>
       </c>
@@ -14631,7 +14665,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A797">
         <v>6.0988750003004397E-2</v>
       </c>
@@ -14648,7 +14682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A798">
         <v>3.8372331766266303E-2</v>
       </c>
@@ -14665,7 +14699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A799">
         <v>-3.9699184773457803E-3</v>
       </c>
@@ -14682,7 +14716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="800" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A800">
         <v>0.207661635374841</v>
       </c>
@@ -14699,7 +14733,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A801">
         <v>9.15719498857996E-2</v>
       </c>
@@ -14716,7 +14750,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A802">
         <v>6.6991612964316397E-2</v>
       </c>
@@ -14733,7 +14767,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A803">
         <v>0.13684993240688401</v>
       </c>
@@ -14750,7 +14784,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A804">
         <v>9.5884598687083405E-2</v>
       </c>
@@ -14767,7 +14801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A805">
         <v>0.24494897418084699</v>
       </c>
@@ -14784,7 +14818,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A806">
         <v>-3.30303389242384E-2</v>
       </c>
@@ -14801,7 +14835,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A807">
         <v>-8.8053646152360193E-2</v>
       </c>
@@ -14818,7 +14852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A808">
         <v>-5.8192517234884403E-2</v>
       </c>
@@ -14835,7 +14869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A809">
         <v>5.85786437318856E-2</v>
       </c>
@@ -14852,7 +14886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A810">
         <v>0.17480640978818399</v>
       </c>
@@ -14869,7 +14903,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A811">
         <v>0.14546157500548801</v>
       </c>
@@ -14886,7 +14920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A812">
         <v>4.2663193277792201E-2</v>
       </c>
@@ -14903,7 +14937,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="813" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A813">
         <v>-4.2684228450991402E-2</v>
       </c>
@@ -14920,7 +14954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A814">
         <v>-4.3348333009489697E-2</v>
       </c>
@@ -14937,7 +14971,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A815">
         <v>0.123011108260572</v>
       </c>
@@ -14954,7 +14988,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A816">
         <v>-5.6817620388917502E-2</v>
       </c>
@@ -14971,7 +15005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="817" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A817">
         <v>0.123292664228631</v>
       </c>
@@ -14988,7 +15022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="818" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A818">
         <v>-3.79783549057221E-2</v>
       </c>
@@ -15005,7 +15039,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="819" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A819">
         <v>-0.103527618186757</v>
       </c>
@@ -15022,7 +15056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="820" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A820">
         <v>2.8720020578428599E-2</v>
       </c>
@@ -15039,7 +15073,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="821" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A821">
         <v>0.130621423264841</v>
       </c>
@@ -15056,7 +15090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="822" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A822">
         <v>0.14001060696397299</v>
       </c>
@@ -15073,7 +15107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="823" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A823">
         <v>-6.3268074425666496E-2</v>
       </c>
@@ -15090,7 +15124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="824" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A824">
         <v>3.7560771297185297E-2</v>
       </c>
@@ -15107,7 +15141,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="825" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A825">
         <v>-1.9401435871408301E-2</v>
       </c>
@@ -15124,7 +15158,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="826" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A826">
         <v>-6.6714710546670997E-2</v>
       </c>
@@ -15141,7 +15175,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A827">
         <v>8.8518856705563004E-2</v>
       </c>
@@ -15158,7 +15192,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="828" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A828">
         <v>0.14471580290515301</v>
       </c>
@@ -15175,7 +15209,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="829" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A829">
         <v>-3.32269230075928E-2</v>
       </c>
@@ -15192,7 +15226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="830" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A830">
         <v>-9.42367115777306E-2</v>
       </c>
@@ -15209,7 +15243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A831">
         <v>0.13148955521986599</v>
       </c>
@@ -15226,7 +15260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="832" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A832">
         <v>-6.8473014007283797E-2</v>
       </c>
@@ -15243,7 +15277,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="833" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A833">
         <v>-9.4066606997314006E-2</v>
       </c>
@@ -15260,7 +15294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="834" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A834">
         <v>0.12711455202758801</v>
       </c>
@@ -15277,7 +15311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="835" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A835">
         <v>-2.9254150158745499E-2</v>
       </c>
@@ -15294,7 +15328,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="836" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A836">
         <v>-5.9682611507374E-2</v>
       </c>
@@ -15311,7 +15345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="837" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A837">
         <v>2.1841931373726399E-2</v>
       </c>
@@ -15328,7 +15362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="838" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A838">
         <v>0.14342808455674899</v>
       </c>
@@ -15345,7 +15379,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="839" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A839">
         <v>2.1238312935906799E-2</v>
       </c>
@@ -15362,7 +15396,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="840" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A840">
         <v>0.192129515248152</v>
       </c>
@@ -15379,7 +15413,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="841" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A841">
         <v>6.29425804437065E-3</v>
       </c>
@@ -15396,7 +15430,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="842" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A842">
         <v>-4.9766823486088602E-2</v>
       </c>
@@ -15413,7 +15447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="843" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A843">
         <v>-2.2584651619188801E-3</v>
       </c>
@@ -15430,7 +15464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="844" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A844">
         <v>0.135207598608797</v>
       </c>
@@ -15447,7 +15481,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="845" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A845">
         <v>0.13272897266224801</v>
       </c>
@@ -15464,7 +15498,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A846">
         <v>1.8084766763929099E-2</v>
       </c>
@@ -15481,7 +15515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="847" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A847">
         <v>-5.2175559410454903E-2</v>
       </c>
@@ -15498,7 +15532,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="848" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A848">
         <v>4.6708062348076798E-2</v>
       </c>
@@ -15515,7 +15549,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="849" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A849">
         <v>1.3190230301391E-2</v>
       </c>
@@ -15532,7 +15566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="850" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A850">
         <v>0.13324051312948901</v>
       </c>
@@ -15549,7 +15583,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="851" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A851">
         <v>2.3231247147006098E-2</v>
       </c>
@@ -15566,7 +15600,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="852" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A852">
         <v>-2.1326790360846701E-2</v>
       </c>
@@ -15583,7 +15617,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="853" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A853">
         <v>1.26694494975211E-2</v>
       </c>
@@ -15600,7 +15634,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="854" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A854">
         <v>-5.0855872846166397E-2</v>
       </c>
@@ -15617,7 +15651,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="855" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A855">
         <v>-5.2866916817451903E-3</v>
       </c>
@@ -15634,7 +15668,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="856" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A856">
         <v>4.2412704372397102E-2</v>
       </c>
@@ -15651,7 +15685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="857" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A857">
         <v>1.3937156278197201E-2</v>
       </c>
@@ -15668,7 +15702,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="858" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A858">
         <v>0.17711306843232999</v>
       </c>
@@ -15685,7 +15719,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="859" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A859">
         <v>3.3737096255376603E-2</v>
       </c>
@@ -15702,7 +15736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="860" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A860">
         <v>0.100213735715588</v>
       </c>
@@ -15719,7 +15753,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="861" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A861">
         <v>0.101064803522966</v>
       </c>
@@ -15736,7 +15770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="862" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A862">
         <v>9.22505446526177E-2</v>
       </c>
@@ -15753,7 +15787,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="863" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A863">
         <v>0.192390922901092</v>
       </c>
@@ -15770,7 +15804,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="864" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A864">
         <v>1.6840365386790901E-2</v>
       </c>
@@ -15787,7 +15821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="865" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A865">
         <v>2.36067981149389E-2</v>
       </c>
@@ -15804,7 +15838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="866" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A866">
         <v>5.4631026259642203E-2</v>
       </c>
@@ -15821,7 +15855,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="867" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A867">
         <v>-4.1794729650392999E-2</v>
       </c>
@@ -15838,7 +15872,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="868" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A868">
         <v>8.8289346414450506E-2</v>
       </c>
@@ -15855,7 +15889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="869" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A869">
         <v>0.14142135613687701</v>
       </c>
@@ -15872,7 +15906,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A870">
         <v>1.74913813957722E-2</v>
       </c>
@@ -15889,7 +15923,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="871" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A871">
         <v>2.6840612399716201E-2</v>
       </c>
@@ -15906,7 +15940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="872" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A872">
         <v>0.156597320520585</v>
       </c>
@@ -15923,7 +15957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="873" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A873">
         <v>0.12901150273676701</v>
       </c>
@@ -15940,7 +15974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="874" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A874">
         <v>-0.10679496667760401</v>
       </c>
@@ -15957,7 +15991,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="875" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A875">
         <v>0.113747503002383</v>
       </c>
@@ -15974,7 +16008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="876" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A876">
         <v>2.4038855981085201E-2</v>
       </c>
@@ -15991,7 +16025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="877" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A877">
         <v>-0.13256571878810999</v>
       </c>
@@ -16008,7 +16042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="878" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A878">
         <v>0.11975787480878</v>
       </c>
@@ -16025,7 +16059,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="879" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A879">
         <v>0.23347738837214799</v>
       </c>
@@ -16042,7 +16076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="880" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A880">
         <v>-5.13400983081699E-3</v>
       </c>
@@ -16059,7 +16093,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="881" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A881">
         <v>0.213295901513083</v>
       </c>
@@ -16076,7 +16110,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="882" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A882">
         <v>3.2278253971799002E-2</v>
       </c>
@@ -16093,7 +16127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="883" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A883">
         <v>-2.26531012099522E-2</v>
       </c>
@@ -16110,7 +16144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="884" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A884">
         <v>7.28239051230095E-2</v>
       </c>
@@ -16127,7 +16161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="885" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A885">
         <v>0.20872550874438001</v>
       </c>
@@ -16144,7 +16178,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="886" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A886">
         <v>0.16269326507502799</v>
       </c>
@@ -16161,7 +16195,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="887" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A887">
         <v>-2.74163603094199E-2</v>
       </c>
@@ -16178,7 +16212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="888" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A888">
         <v>0.12412880897912</v>
       </c>
@@ -16195,7 +16229,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="889" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A889">
         <v>0.137377300563779</v>
       </c>
@@ -16212,7 +16246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="890" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A890">
         <v>8.7653777324824794E-2</v>
       </c>
@@ -16229,7 +16263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="891" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A891">
         <v>0.160269978354977</v>
       </c>
@@ -16246,7 +16280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="892" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A892">
         <v>0.17516626757370399</v>
       </c>
@@ -16263,7 +16297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="893" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A893">
         <v>0.13236633347797799</v>
       </c>
@@ -16280,7 +16314,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="894" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A894">
         <v>8.6602860528709899E-2</v>
       </c>
@@ -16297,7 +16331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="895" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A895">
         <v>-0.14976806152278699</v>
       </c>
@@ -16314,7 +16348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="896" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A896">
         <v>9.5354696724554794E-2</v>
       </c>
@@ -16331,7 +16365,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="897" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A897">
         <v>-7.3946251861991899E-3</v>
       </c>
@@ -16348,7 +16382,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="898" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A898">
         <v>0.120412190726449</v>
       </c>
@@ -16365,7 +16399,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="899" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A899">
         <v>9.7693916270341297E-2</v>
       </c>
@@ -16382,7 +16416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="900" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A900">
         <v>4.96228208832699E-2</v>
       </c>
@@ -16399,7 +16433,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="901" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A901">
         <v>7.0423764132995698E-2</v>
       </c>
@@ -16416,7 +16450,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="902" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A902">
         <v>0.20482747378710001</v>
       </c>
@@ -16433,7 +16467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="903" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A903">
         <v>9.6888928842333896E-2</v>
       </c>
@@ -16450,7 +16484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="904" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A904">
         <v>1.58639201819907E-2</v>
       </c>
@@ -16467,7 +16501,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="905" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A905">
         <v>-3.0970083521393001E-2</v>
       </c>
@@ -16484,7 +16518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="906" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A906">
         <v>7.4780382902566805E-2</v>
       </c>
@@ -16501,7 +16535,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A907">
         <v>4.8111809850804502E-2</v>
       </c>
@@ -16518,7 +16552,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="908" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A908">
         <v>-0.100037115971904</v>
       </c>
@@ -16535,7 +16569,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="909" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A909">
         <v>-1.41613107060164E-2</v>
       </c>
@@ -16552,7 +16586,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="910" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A910">
         <v>0.107459884205185</v>
       </c>
@@ -16569,7 +16603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="911" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A911">
         <v>1.39095444964096E-2</v>
       </c>
@@ -16586,7 +16620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="912" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A912">
         <v>1.93352405783416E-2</v>
       </c>
@@ -16603,7 +16637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="913" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A913">
         <v>4.5851717015071201E-2</v>
       </c>
@@ -16620,7 +16654,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="914" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A914">
         <v>-1.7082407146048001E-2</v>
       </c>
@@ -16637,7 +16671,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="915" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A915">
         <v>3.0377613058199301E-2</v>
       </c>
@@ -16654,7 +16688,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="916" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A916">
         <v>0.10108013762161</v>
       </c>
@@ -16671,7 +16705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="917" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A917">
         <v>-7.1064131560501396E-3</v>
       </c>
@@ -16688,7 +16722,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="918" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A918">
         <v>8.3871219100971998E-3</v>
       </c>
@@ -16705,7 +16739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="919" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A919">
         <v>-1.4147614076914901E-2</v>
       </c>
@@ -16722,7 +16756,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="920" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A920">
         <v>0.107054168001772</v>
       </c>
@@ -16739,7 +16773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="921" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A921">
         <v>2.90683884114472E-2</v>
       </c>
@@ -16756,7 +16790,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="922" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A922">
         <v>1.4215916100579699E-2</v>
       </c>
@@ -16773,7 +16807,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="923" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A923">
         <v>7.3236398452023593E-2</v>
       </c>
@@ -16790,7 +16824,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="924" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A924">
         <v>-7.5327147187222498E-2</v>
       </c>
@@ -16807,7 +16841,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="925" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A925">
         <v>1.18779095794269E-2</v>
       </c>
@@ -16824,7 +16858,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="926" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A926">
         <v>0.131053376364032</v>
       </c>
@@ -16841,7 +16875,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="927" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A927">
         <v>-1.80309116670062E-2</v>
       </c>
@@ -16858,7 +16892,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A928">
         <v>0.119675794898379</v>
       </c>
@@ -16875,7 +16909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="929" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A929">
         <v>-0.182995878870787</v>
       </c>
@@ -16892,7 +16926,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A930">
         <v>-8.9511070258449805E-3</v>
       </c>
@@ -16909,7 +16943,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="931" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A931">
         <v>-7.7714619570338803E-2</v>
       </c>
@@ -16926,7 +16960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="932" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A932">
         <v>-1.42102358216181E-2</v>
       </c>
@@ -16943,7 +16977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="933" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A933">
         <v>0.14776275621188001</v>
       </c>
@@ -16960,7 +16994,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="934" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A934">
         <v>0.17196191835268501</v>
       </c>
@@ -16977,7 +17011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="935" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A935">
         <v>5.5055249237038598E-2</v>
       </c>
@@ -16994,7 +17028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="936" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A936">
         <v>-2.5720386614285499E-2</v>
       </c>
@@ -17011,7 +17045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="937" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A937">
         <v>2.4439686214842101E-2</v>
       </c>
@@ -17028,7 +17062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="938" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A938">
         <v>0.109578328463121</v>
       </c>
@@ -17045,7 +17079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="939" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A939">
         <v>6.8844723806016604E-3</v>
       </c>
@@ -17062,7 +17096,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="940" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A940">
         <v>0.10338974186069801</v>
       </c>
@@ -17079,7 +17113,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="941" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A941">
         <v>-0.10866127617037299</v>
       </c>
@@ -17096,7 +17130,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="942" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A942">
         <v>-0.104002519502384</v>
       </c>
@@ -17113,7 +17147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="943" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A943">
         <v>4.2490408963681503E-2</v>
       </c>
@@ -17130,7 +17164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="944" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A944">
         <v>4.7802024744434901E-2</v>
       </c>
@@ -17147,7 +17181,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="945" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A945">
         <v>3.8513425065563101E-2</v>
       </c>
@@ -17164,7 +17198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="946" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A946">
         <v>6.9098003043970499E-2</v>
       </c>
@@ -17181,7 +17215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="947" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A947">
         <v>8.9856054031002705E-2</v>
       </c>
@@ -17198,7 +17232,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="948" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A948">
         <v>2.5951919359455199E-2</v>
       </c>
@@ -17215,7 +17249,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="949" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A949">
         <v>-0.12582951447065699</v>
       </c>
@@ -17232,7 +17266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="950" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A950">
         <v>-1.51611309329254E-2</v>
       </c>
@@ -17249,7 +17283,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="951" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A951">
         <v>-5.5060218769680001E-2</v>
       </c>
@@ -17266,7 +17300,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="952" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A952">
         <v>0.121497303415013</v>
       </c>
@@ -17283,7 +17317,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="953" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A953">
         <v>3.9197403328542102E-2</v>
       </c>
@@ -17300,7 +17334,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="954" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A954">
         <v>7.2473682747000598E-2</v>
       </c>
@@ -17317,7 +17351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="955" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A955">
         <v>9.5522859522631107E-2</v>
       </c>
@@ -17334,7 +17368,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="956" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A956">
         <v>-7.1219563656068796E-2</v>
       </c>
@@ -17351,7 +17385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="957" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A957">
         <v>9.5380701446773394E-2</v>
       </c>
@@ -17368,7 +17402,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="958" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A958">
         <v>5.8040032877173103E-2</v>
       </c>
@@ -17385,7 +17419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="959" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A959">
         <v>-6.5382733751914598E-2</v>
       </c>
@@ -17402,7 +17436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="960" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A960">
         <v>-2.3706037803104301E-2</v>
       </c>
@@ -17419,7 +17453,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="961" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A961">
         <v>0.126821868519813</v>
       </c>
@@ -17436,7 +17470,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="962" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A962">
         <v>3.7497564731425001E-2</v>
       </c>
@@ -17453,7 +17487,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="963" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A963">
         <v>0.11848484975222499</v>
       </c>
@@ -17470,7 +17504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="964" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A964">
         <v>2.61171804058811E-2</v>
       </c>
@@ -17487,7 +17521,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="965" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A965">
         <v>1.7138427812623799E-2</v>
       </c>
@@ -17504,7 +17538,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="966" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A966">
         <v>0.118564798386447</v>
       </c>
@@ -17521,7 +17555,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="967" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A967">
         <v>0.23589387206266901</v>
       </c>
@@ -17538,7 +17572,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="968" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A968">
         <v>-5.1045699243125603E-2</v>
       </c>
@@ -17555,7 +17589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="969" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A969">
         <v>8.0553214816058594E-2</v>
       </c>
@@ -17572,7 +17606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="970" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A970">
         <v>-4.7064096748714097E-2</v>
       </c>
@@ -17589,7 +17623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="971" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A971">
         <v>-2.24933703817599E-2</v>
       </c>
@@ -17606,7 +17640,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="972" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A972">
         <v>-8.9683462390941299E-2</v>
       </c>
@@ -17623,7 +17657,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="973" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A973">
         <v>-9.9523606182219306E-3</v>
       </c>
@@ -17640,7 +17674,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="974" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A974">
         <v>0.120890783026484</v>
       </c>
@@ -17657,7 +17691,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="975" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A975">
         <v>0.124876004053455</v>
       </c>
@@ -17674,7 +17708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="976" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A976">
         <v>2.8551682195073501E-2</v>
       </c>
@@ -17691,7 +17725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="977" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A977">
         <v>-6.2266230662179199E-2</v>
       </c>
@@ -17708,7 +17742,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="978" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A978">
         <v>-4.8948226842637402E-2</v>
       </c>
@@ -17725,7 +17759,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="979" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A979">
         <v>8.3744553046447498E-2</v>
       </c>
@@ -17742,7 +17776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="980" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A980">
         <v>-6.2683739396212398E-2</v>
       </c>
@@ -17759,7 +17793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="981" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A981">
         <v>5.48915745797387E-2</v>
       </c>
@@ -17776,7 +17810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="982" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A982">
         <v>-0.11695135631842001</v>
       </c>
@@ -17793,7 +17827,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="983" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A983">
         <v>-0.11018786316258999</v>
       </c>
@@ -17810,7 +17844,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="984" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A984">
         <v>4.0029372323401001E-2</v>
       </c>
@@ -17827,7 +17861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="985" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A985">
         <v>-2.08068584741678E-2</v>
       </c>
@@ -17860,10 +17894,7 @@
       <c r="E986" t="s">
         <v>71</v>
       </c>
-      <c r="G986" s="2">
-        <f>COUNTIF($A$986:$A$1026,"&gt;0")/COUNT($A$986:$A$1026)*100</f>
-        <v>68.292682926829272</v>
-      </c>
+      <c r="G986" s="2"/>
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A987">
@@ -17881,10 +17912,7 @@
       <c r="E987" t="s">
         <v>71</v>
       </c>
-      <c r="G987" s="2">
-        <f>COUNTIF($A$986:$A$1026,"&lt;0")/COUNT($A$986:$A$1026)*100</f>
-        <v>31.707317073170731</v>
-      </c>
+      <c r="G987" s="2"/>
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A988">
@@ -18549,7 +18577,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="1027" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1027">
         <v>-1.8532376062000699E-2</v>
       </c>
@@ -18566,7 +18594,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1028" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1028">
         <v>-6.5820549321712902E-3</v>
       </c>
@@ -18583,7 +18611,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1029" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1029">
         <v>1.5923609284063299E-2</v>
       </c>
@@ -18600,7 +18628,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1030" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1030">
         <v>-1.0348842580736499E-2</v>
       </c>
@@ -18617,7 +18645,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1031" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1031">
         <v>6.8091942721111201E-2</v>
       </c>
@@ -18634,7 +18662,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1032" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1032">
         <v>-7.6606887696868001E-3</v>
       </c>
@@ -18651,7 +18679,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1033" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1033">
         <v>-1.0436164239108E-2</v>
       </c>
@@ -18668,7 +18696,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1034" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1034">
         <v>-4.17108540762425E-3</v>
       </c>
@@ -18685,7 +18713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1035" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1035">
         <v>-7.6726535812409302E-3</v>
       </c>
@@ -18702,7 +18730,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1036" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1036">
         <v>-1.6929133443265899E-2</v>
       </c>
@@ -18719,7 +18747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1037" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1037">
         <v>1.4812514886169701E-2</v>
       </c>
@@ -18736,7 +18764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1038" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1038">
         <v>-9.0480910013636204E-3</v>
       </c>
@@ -18753,7 +18781,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1039" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1039">
         <v>-2.8563200044560599E-2</v>
       </c>
@@ -18770,7 +18798,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1040" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1040">
         <v>4.7996417768144404E-3</v>
       </c>
@@ -18787,7 +18815,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1041" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1041">
         <v>-3.0476743632383899E-2</v>
       </c>
@@ -18804,7 +18832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1042" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1042">
         <v>1.5559660076635199E-2</v>
       </c>
@@ -18821,7 +18849,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1043" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1043">
         <v>-1.3689328334771701E-2</v>
       </c>
@@ -18838,7 +18866,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1044" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1044">
         <v>2.3462994560045601E-2</v>
       </c>
@@ -18855,7 +18883,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1045" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1045">
         <v>1.3563224691361699E-2</v>
       </c>
@@ -18872,7 +18900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1046" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1046">
         <v>-6.9435897501535998E-3</v>
       </c>
@@ -18889,7 +18917,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1047" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1047">
         <v>1.13706532098268E-2</v>
       </c>
@@ -18906,7 +18934,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1048" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1048" s="1">
         <v>-8.8255208891719705E-5</v>
       </c>
@@ -18923,7 +18951,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1049" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1049">
         <v>1.4866011108971E-3</v>
       </c>
@@ -18940,7 +18968,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1050" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1050">
         <v>3.7066351131622703E-2</v>
       </c>
@@ -18957,7 +18985,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1051" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1051">
         <v>-2.9775563561840201E-2</v>
       </c>
@@ -18974,7 +19002,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1052" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1052" s="1">
         <v>1.2826089702899501E-5</v>
       </c>
@@ -18991,7 +19019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1053" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1053">
         <v>2.0597855526032001E-2</v>
       </c>
@@ -19008,7 +19036,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1054" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1054">
         <v>1.27606696048044E-2</v>
       </c>
@@ -19025,7 +19053,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1055" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1055">
         <v>-1.2454743365769599E-2</v>
       </c>
@@ -19042,7 +19070,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1056" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1056">
         <v>-3.88082440269042E-2</v>
       </c>
@@ -19059,7 +19087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1057" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1057">
         <v>7.5340006006305096E-3</v>
       </c>
@@ -19076,7 +19104,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1058" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1058">
         <v>-2.2178870990496899E-3</v>
       </c>
@@ -19093,7 +19121,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1059" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1059">
         <v>4.2710880029128102E-2</v>
       </c>
@@ -19110,7 +19138,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1060" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1060">
         <v>-1.4835723089356901E-2</v>
       </c>
@@ -19127,7 +19155,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1061" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1061">
         <v>6.3581029089084598E-3</v>
       </c>
@@ -19144,7 +19172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1062" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1062">
         <v>6.3671257705824297E-2</v>
       </c>
@@ -19161,7 +19189,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1063" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1063">
         <v>-2.5395542996845401E-2</v>
       </c>
@@ -19178,7 +19206,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1064" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1064">
         <v>2.3831770095699201E-2</v>
       </c>
@@ -19195,7 +19223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1065" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1065">
         <v>6.1144729337160697E-2</v>
       </c>
@@ -19212,7 +19240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1066" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1066">
         <v>-1.8780204198044399E-2</v>
       </c>
@@ -19229,7 +19257,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1067" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1067">
         <v>1.5516848723752001E-2</v>
       </c>
@@ -19247,13 +19275,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1067">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="spp_richness"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E1067" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>